--- a/PatientCare360/Users.xlsx
+++ b/PatientCare360/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dori6\source\repos\PatientCare360\PatientCare360\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D6A40F-9A61-493E-8A8B-2696B92BA5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D736B517-E656-495D-ACE2-8B59AA000365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Full name</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,26 +341,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>